--- a/Docs/Testing (TES)/Test_Cases/TS_Best.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Best.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>N</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Проверка цикличного переключения фото</t>
   </si>
   <si>
-    <t>Ждать 3 секунды столько раз, сколько фото мы загрузили в тестовый аккаунт</t>
-  </si>
-  <si>
     <t>1. Добавить в тестовый аккаунт в альбом "scrabook" 3 фото                                                       2. Перейти на страницу Home                                                                         3. Убедиться, что в блоке лучшие фото появилось фото, которое мы загрузили в тестовый аккаунт, присутствуют навигационные кнопки "Вправо" и "Влево"                                                                              4. Проверить цикличное переключение фото (2 раза)</t>
   </si>
   <si>
@@ -142,6 +139,36 @@
   </si>
   <si>
     <t>FReq_best_001, FReq_best_003</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass</t>
+  </si>
+  <si>
+    <t>Ждать 5 секунд столько раз, сколько фото мы загрузили в тестовый аккаунт</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Fail                               4. Blocked</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Blocked                               4. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -251,7 +278,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -318,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -624,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>17</v>
@@ -683,19 +715,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -703,19 +735,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -723,19 +755,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -743,19 +775,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -873,7 +905,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -885,7 +917,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,12 +927,12 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -940,17 +972,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -987,16 +1020,142 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Best.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Best.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15270" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>N</t>
   </si>
@@ -169,13 +169,25 @@
   </si>
   <si>
     <t>Blocked</t>
+  </si>
+  <si>
+    <t>scrabook</t>
+  </si>
+  <si>
+    <t>Альбом с лучшими фотографиями. В настройках нашего сайта должно быть указано, что альбом с лучшими фото брать с ленты из альбома "scrabook"</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass                               4. Pass</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +208,11 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -250,6 +267,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -350,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I11"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -657,7 +677,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,20 +955,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
@@ -972,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,6 +1185,141 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
